--- a/patients/208383893.xlsx
+++ b/patients/208383893.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B9E0F9-4CF5-4B49-8CD2-F6CAFCCC1998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{77B9E0F9-4CF5-4B49-8CD2-F6CAFCCC1998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{195C97B8-397F-4A95-BB8D-DAFCAAD62662}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="11208" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16440" yWindow="137" windowWidth="16423" windowHeight="17606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="47">
   <si>
     <t>WBC</t>
   </si>
@@ -171,14 +171,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -190,7 +190,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,8 +228,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ניטראלי" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -507,39 +507,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.3828125" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" customWidth="1"/>
+    <col min="7" max="7" width="7.61328125" customWidth="1"/>
     <col min="8" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="17.69921875" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.8984375" customWidth="1"/>
-    <col min="14" max="14" width="7.3984375" customWidth="1"/>
-    <col min="15" max="15" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.3984375" customWidth="1"/>
-    <col min="17" max="17" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="10.69921875" customWidth="1"/>
-    <col min="19" max="19" width="25.59765625" customWidth="1"/>
+    <col min="10" max="10" width="17.69140625" customWidth="1"/>
+    <col min="11" max="11" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.921875" customWidth="1"/>
+    <col min="14" max="14" width="7.3828125" customWidth="1"/>
+    <col min="15" max="15" width="4.61328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.3828125" customWidth="1"/>
+    <col min="17" max="17" width="15.4609375" customWidth="1"/>
+    <col min="18" max="18" width="10.69140625" customWidth="1"/>
+    <col min="19" max="19" width="25.61328125" customWidth="1"/>
     <col min="20" max="20" width="9" customWidth="1"/>
-    <col min="21" max="21" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.69921875" customWidth="1"/>
-    <col min="23" max="23" width="33.3984375" customWidth="1"/>
+    <col min="21" max="21" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.69140625" customWidth="1"/>
+    <col min="23" max="23" width="33.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -610,7 +610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -681,18 +681,70 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
       <c r="V3" t="s">
         <v>43</v>
       </c>
@@ -700,12 +752,205 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
       <c r="V4" t="s">
         <v>45</v>
       </c>
       <c r="W4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
